--- a/translations/census_individual_translate_welsh.xlsx
+++ b/translations/census_individual_translate_welsh.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/dev/ONSdigital/eq-survey-runner-clean/translations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/collisdigital/Projects/eq-translations/translations/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -266,9 +266,6 @@
     <t>questionnaire-completed-section</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;strong&gt;Thank you for taking part in the 2017 Census Test&lt;/strong&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>You’re ready to submit your 2017 Census Test</t>
   </si>
   <si>
@@ -278,15 +275,6 @@
     <t>Please note:</t>
   </si>
   <si>
-    <t>By submitting your responses you are declaring that you have completed to the best of your knowledge and belief.</t>
-  </si>
-  <si>
-    <t>If you do not submit your questionnaire, your responses will be automatically submitted when the online questionnaire closes.</t>
-  </si>
-  <si>
-    <t>After submission of your questionnaire you will have an opportunity to provide feedback on your experience.</t>
-  </si>
-  <si>
     <t>qualifications-welsh-question</t>
   </si>
   <si>
@@ -1511,24 +1499,12 @@
     <t>Unrhyw grefydd arall (nodwch)</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;strong&gt;Diolch am gymryd rhan ym Mhrawf Cyfrifiad 2017&lt;/strong&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>Rydych yn barod i gyflwyno Prawf Cyfrifiad 2017</t>
   </si>
   <si>
     <t xml:space="preserve">Nodwch: </t>
   </si>
   <si>
-    <t xml:space="preserve">Drwy gyflwyno'ch ymatebion, rydych yn datgan eich bod wedi cwblhau'r prawf hyd eithaf eich gwybodaeth a'ch cred. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os na fyddwch yn cyflwyno'ch holiadur, bydd eich ymatebion yn cael eu cyflwyno'n awtomatig pan fydd yr holiadur ar-lein yn cau. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ar ôl cyflwyno eich holiadur cewch gyfle i roi adborth ar eich profiad. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Dewiswch bob opsiwn sy'n berthnasol (boed yn y DU neu'r hyn sy'n cyfateb iddo dramor) os oes gennych unrhyw rai o'r cymwysterau a restrir </t>
   </si>
   <si>
@@ -2208,6 +2184,30 @@
   </si>
   <si>
     <t>&lt;strong&gt;Dylech gynnwys&lt;/strong&gt; Problemau sy'n gysylltiedig â henaint</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Thank you for taking part in the 2017 Census Test.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Diolch am gymryd rhan ym Mhrawf Cyfrifiad 2017.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>By submitting your responses, you are declaring that you have completed to the best of your knowledge and belief.</t>
+  </si>
+  <si>
+    <t>If you do not submit, your responses will be automatically submitted when the Census 2017 Test closes.</t>
+  </si>
+  <si>
+    <t>After submission you will have an opportunity to provide feedback on your experience.</t>
+  </si>
+  <si>
+    <t>Drwy gyflwyno’ch ymatebion, rydych yn datgan eich bod wedi cwblhau’r prawf hyd eithaf eich gwybodaeth a’ch cred.</t>
+  </si>
+  <si>
+    <t>Os na fyddwch yn cyflwyno’ch ymatebion, byddant yn cael eu cyflwyno’n awtomatig pan fydd Prawf Cyfrifiad 2017 yn cau.</t>
+  </si>
+  <si>
+    <t>Ar ôl eu cyflwyno cewch gyfle i roi adborth ar eich profiad.</t>
   </si>
 </sst>
 </file>
@@ -2566,8 +2566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C439"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
-      <selection activeCell="B348" sqref="B348"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2596,7 +2596,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.2">
@@ -2607,7 +2607,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2618,7 +2618,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2629,7 +2629,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2640,7 +2640,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2651,7 +2651,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2662,7 +2662,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2682,7 +2682,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -2693,7 +2693,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2704,7 +2704,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -2715,7 +2715,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -2726,7 +2726,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2737,7 +2737,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2748,7 +2748,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2773,7 +2773,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -2784,7 +2784,7 @@
         <v>23</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2795,7 +2795,7 @@
         <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2806,7 +2806,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2817,7 +2817,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2828,7 +2828,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -2853,7 +2853,7 @@
         <v>31</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2864,7 +2864,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -2875,7 +2875,7 @@
         <v>34</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -2886,7 +2886,7 @@
         <v>35</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2897,7 +2897,7 @@
         <v>36</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2908,7 +2908,7 @@
         <v>37</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2919,7 +2919,7 @@
         <v>38</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -2944,7 +2944,7 @@
         <v>41</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -2955,7 +2955,7 @@
         <v>43</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -2966,7 +2966,7 @@
         <v>44</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -2991,7 +2991,7 @@
         <v>47</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -3002,7 +3002,7 @@
         <v>48</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="135" x14ac:dyDescent="0.2">
@@ -3013,7 +3013,7 @@
         <v>50</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -3024,7 +3024,7 @@
         <v>52</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -3035,7 +3035,7 @@
         <v>53</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -3046,7 +3046,7 @@
         <v>54</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -3057,7 +3057,7 @@
         <v>55</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -3068,7 +3068,7 @@
         <v>56</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -3093,7 +3093,7 @@
         <v>59</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -3104,7 +3104,7 @@
         <v>61</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -3115,7 +3115,7 @@
         <v>62</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -3126,7 +3126,7 @@
         <v>47</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -3137,7 +3137,7 @@
         <v>64</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -3148,7 +3148,7 @@
         <v>66</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -3159,7 +3159,7 @@
         <v>67</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -3170,7 +3170,7 @@
         <v>68</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -3181,7 +3181,7 @@
         <v>69</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -3192,7 +3192,7 @@
         <v>70</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -3203,7 +3203,7 @@
         <v>71</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -3214,7 +3214,7 @@
         <v>72</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -3225,7 +3225,7 @@
         <v>73</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -3236,7 +3236,7 @@
         <v>56</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -3261,7 +3261,7 @@
         <v>47</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -3272,7 +3272,7 @@
         <v>64</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -3283,7 +3283,7 @@
         <v>66</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -3294,7 +3294,7 @@
         <v>77</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -3305,7 +3305,7 @@
         <v>68</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -3316,7 +3316,7 @@
         <v>69</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -3327,7 +3327,7 @@
         <v>70</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -3338,7 +3338,7 @@
         <v>71</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -3349,7 +3349,7 @@
         <v>72</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -3360,7 +3360,7 @@
         <v>73</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -3371,7 +3371,7 @@
         <v>56</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -3382,10 +3382,10 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>719</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>494</v>
+        <v>720</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -3396,252 +3396,252 @@
         <v>78</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>80</v>
+      </c>
+      <c r="B84" t="s">
         <v>81</v>
       </c>
-      <c r="B84" t="s">
-        <v>82</v>
-      </c>
       <c r="C84" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>721</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>497</v>
+        <v>724</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>722</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>498</v>
+        <v>725</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>723</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>499</v>
+        <v>726</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>85</v>
+      </c>
+      <c r="B93" t="s">
         <v>89</v>
       </c>
-      <c r="B93" t="s">
-        <v>93</v>
-      </c>
       <c r="C93" s="1" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -3649,206 +3649,206 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C107" s="1"/>
     </row>
     <row r="108" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B108" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B109" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B110" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B111" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B112" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>104</v>
+      </c>
+      <c r="B113" t="s">
         <v>108</v>
       </c>
-      <c r="B113" t="s">
-        <v>112</v>
-      </c>
       <c r="C113" s="1" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B114" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B115" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B116" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B117" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B118" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B119" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B120" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B121" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B122" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B123" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B124" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B125" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -3856,7 +3856,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B127" t="s">
         <v>19</v>
@@ -3867,90 +3867,90 @@
     </row>
     <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B128" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B129" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B130" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B131" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B132" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B133" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>117</v>
+      </c>
+      <c r="B134" t="s">
         <v>121</v>
       </c>
-      <c r="B134" t="s">
-        <v>125</v>
-      </c>
       <c r="C134" s="1" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B135" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -3958,7 +3958,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B137" t="s">
         <v>19</v>
@@ -3969,68 +3969,68 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B138" t="s">
         <v>31</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B139" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B140" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B141" t="s">
         <v>9</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B142" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B143" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -4038,7 +4038,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B145" t="s">
         <v>19</v>
@@ -4049,24 +4049,24 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B146" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B147" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -4074,63 +4074,63 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C149" s="1"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B150" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B151" t="s">
         <v>6</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B152" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B153" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B154" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -4138,7 +4138,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B156" t="s">
         <v>19</v>
@@ -4149,68 +4149,68 @@
     </row>
     <row r="157" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B157" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B158" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B159" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B160" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B161" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B162" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -4218,195 +4218,195 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C164" s="1"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B165" t="s">
         <v>31</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B166" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B167" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B168" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B169" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
+        <v>159</v>
+      </c>
+      <c r="B170" t="s">
         <v>163</v>
       </c>
-      <c r="B170" t="s">
-        <v>167</v>
-      </c>
       <c r="C170" s="1" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B171" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B172" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B173" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B174" t="s">
         <v>31</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B175" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B176" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B177" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
+        <v>169</v>
+      </c>
+      <c r="B178" t="s">
         <v>173</v>
       </c>
-      <c r="B178" t="s">
-        <v>177</v>
-      </c>
       <c r="C178" s="1" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B179" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B180" t="s">
         <v>55</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B181" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -4414,118 +4414,118 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C183" s="1"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B184" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B185" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B186" t="s">
         <v>31</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B187" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B188" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B189" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B190" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B191" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B192" t="s">
         <v>55</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B193" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -4533,96 +4533,96 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C195" s="1"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B196" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B197" t="s">
         <v>6</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B198" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B199" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B200" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
+        <v>184</v>
+      </c>
+      <c r="B201" t="s">
         <v>188</v>
       </c>
-      <c r="B201" t="s">
-        <v>192</v>
-      </c>
       <c r="C201" s="1" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B202" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B203" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -4630,7 +4630,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B205" t="s">
         <v>19</v>
@@ -4641,123 +4641,123 @@
     </row>
     <row r="206" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B206" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B207" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B208" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B209" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B210" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
+        <v>197</v>
+      </c>
+      <c r="B211" t="s">
         <v>201</v>
       </c>
-      <c r="B211" t="s">
-        <v>205</v>
-      </c>
       <c r="C211" s="1" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B212" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B213" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B214" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B215" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B216" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
@@ -4765,63 +4765,63 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C218" s="1"/>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B219" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B220" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B221" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B222" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
+        <v>210</v>
+      </c>
+      <c r="B223" t="s">
         <v>214</v>
       </c>
-      <c r="B223" t="s">
-        <v>218</v>
-      </c>
       <c r="C223" s="1" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -4829,63 +4829,63 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C225" s="1"/>
     </row>
     <row r="226" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B226" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B227" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B228" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B229" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B230" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -4893,7 +4893,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B232" t="s">
         <v>19</v>
@@ -4904,57 +4904,57 @@
     </row>
     <row r="233" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B233" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B234" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B235" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B236" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B237" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
@@ -4962,7 +4962,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B239" t="s">
         <v>19</v>
@@ -4973,134 +4973,134 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B240" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B241" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B242" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B243" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B244" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B245" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B246" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B247" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B248" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B249" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B250" t="s">
         <v>55</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B251" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
@@ -5108,63 +5108,63 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C253" s="1"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B254" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B255" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B256" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B257" t="s">
         <v>55</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B258" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
@@ -5172,41 +5172,41 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C260" s="1"/>
     </row>
     <row r="261" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B261" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B262" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B263" t="s">
         <v>25</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
@@ -5214,52 +5214,52 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C265" s="1"/>
     </row>
     <row r="266" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B266" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B267" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B268" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B269" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -5267,41 +5267,41 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C271" s="1"/>
     </row>
     <row r="272" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B272" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B273" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B274" t="s">
         <v>25</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
@@ -5309,41 +5309,41 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C276" s="1"/>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B277" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B278" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B279" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -5351,41 +5351,41 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C281" s="1"/>
     </row>
     <row r="282" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B282" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B283" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B284" t="s">
         <v>25</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
@@ -5393,7 +5393,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B286" t="s">
         <v>19</v>
@@ -5404,68 +5404,68 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B287" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B288" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B289" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B290" t="s">
         <v>25</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B291" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B292" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
@@ -5473,184 +5473,184 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C294" s="1"/>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B295" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B298" t="s">
         <v>25</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B301" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
+        <v>301</v>
+      </c>
+      <c r="B304" t="s">
         <v>305</v>
       </c>
-      <c r="B304" t="s">
-        <v>309</v>
-      </c>
       <c r="C304" s="1" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B305" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B306" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B307" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B308" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B309" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B310" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
@@ -5658,140 +5658,140 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C312" s="1"/>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B313" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B314" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B315" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B316" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B318" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B319" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B320" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B321" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B322" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B323" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B324" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
@@ -5799,63 +5799,63 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C326" s="1"/>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B327" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B328" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B329" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B330" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
+        <v>321</v>
+      </c>
+      <c r="B331" t="s">
         <v>325</v>
       </c>
-      <c r="B331" t="s">
-        <v>329</v>
-      </c>
       <c r="C331" s="1" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
@@ -5863,118 +5863,118 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C333" s="1"/>
     </row>
     <row r="334" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B334" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B335" t="s">
         <v>31</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B336" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B337" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B338" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B339" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
+        <v>331</v>
+      </c>
+      <c r="B340" t="s">
         <v>335</v>
       </c>
-      <c r="B340" t="s">
-        <v>339</v>
-      </c>
       <c r="C340" s="1" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B341" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B342" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B343" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
@@ -5982,74 +5982,74 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C345" s="1"/>
     </row>
     <row r="346" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B346" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B347" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B349" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B350" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B351" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
@@ -6057,7 +6057,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B353" t="s">
         <v>19</v>
@@ -6068,57 +6068,57 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B354" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B355" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B356" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B357" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B358" t="s">
         <v>25</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
@@ -6126,7 +6126,7 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B360" t="s">
         <v>19</v>
@@ -6137,123 +6137,123 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B361" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B362" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B363" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B364" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B366" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B367" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
+        <v>364</v>
+      </c>
+      <c r="B368" t="s">
         <v>368</v>
       </c>
-      <c r="B368" t="s">
-        <v>372</v>
-      </c>
       <c r="C368" s="1" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B369" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B370" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B371" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
@@ -6261,7 +6261,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B373" t="s">
         <v>19</v>
@@ -6272,101 +6272,101 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B376" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B377" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B378" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B379" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B380" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B381" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B382" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
@@ -6374,7 +6374,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B384" t="s">
         <v>19</v>
@@ -6385,79 +6385,79 @@
     </row>
     <row r="385" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B385" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B386" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B387" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B388" t="s">
         <v>25</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B389" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B390" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B391" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
@@ -6465,52 +6465,52 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C393" s="1"/>
     </row>
     <row r="394" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B394" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B395" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B396" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B397" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
@@ -6518,74 +6518,74 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C399" s="1"/>
     </row>
     <row r="400" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B400" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
     </row>
     <row r="401" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B401" t="s">
         <v>6</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B402" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B403" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B404" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
+        <v>400</v>
+      </c>
+      <c r="B405" t="s">
         <v>404</v>
       </c>
-      <c r="B405" t="s">
-        <v>408</v>
-      </c>
       <c r="C405" s="1" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
@@ -6593,96 +6593,96 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C407" s="1"/>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B408" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B409" t="s">
         <v>6</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B411" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B412" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
+        <v>409</v>
+      </c>
+      <c r="B413" t="s">
         <v>413</v>
       </c>
-      <c r="B413" t="s">
-        <v>417</v>
-      </c>
       <c r="C413" s="1" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B414" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B415" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
@@ -6690,7 +6690,7 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B417" t="s">
         <v>19</v>
@@ -6701,35 +6701,35 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B418" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B419" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B420" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
@@ -6737,7 +6737,7 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B422" t="s">
         <v>19</v>
@@ -6748,68 +6748,68 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B423" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B424" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B425" t="s">
         <v>25</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B426" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B427" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B428" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
@@ -6817,7 +6817,7 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B430" t="s">
         <v>19</v>
@@ -6828,101 +6828,101 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B431" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B432" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B433" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B434" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
+        <v>434</v>
+      </c>
+      <c r="B435" t="s">
         <v>438</v>
       </c>
-      <c r="B435" t="s">
-        <v>442</v>
-      </c>
       <c r="C435" s="1" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B436" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B437" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B438" t="s">
         <v>55</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B439" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
     </row>
   </sheetData>
